--- a/EXCEL_FILES/OT_templateAbhroChowdhury.xlsx
+++ b/EXCEL_FILES/OT_templateAbhroChowdhury.xlsx
@@ -4365,6 +4365,11 @@
         <v/>
       </c>
     </row>
+    <row r="41">
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
@@ -6071,7 +6076,7 @@
         </is>
       </c>
       <c r="B12" s="8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="8" t="n"/>
@@ -9081,7 +9086,7 @@
         </is>
       </c>
       <c r="B12" s="8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="8" t="n"/>
@@ -9098,7 +9103,7 @@
         </is>
       </c>
       <c r="B13" s="8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" s="8" t="n"/>
       <c r="D13" s="8" t="n"/>
@@ -9115,7 +9120,7 @@
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="8" t="n"/>
